--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v3.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C1F951-2CF4-49CA-AC67-5E0FC2A3FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91446D9-A93A-42DE-AAA9-7505A083397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="210">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -624,6 +624,45 @@
   </si>
   <si>
     <t>PC-Office-Admin</t>
+  </si>
+  <si>
+    <t>ANILLO</t>
+  </si>
+  <si>
+    <t>S1-S2</t>
+  </si>
+  <si>
+    <t>S2-S3</t>
+  </si>
+  <si>
+    <t>S3-S4</t>
+  </si>
+  <si>
+    <t>S4-S1</t>
+  </si>
+  <si>
+    <t>192.168.2.2</t>
+  </si>
+  <si>
+    <t>192.168.2.5</t>
+  </si>
+  <si>
+    <t>192.168.2.6</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>192.168.2.9</t>
+  </si>
+  <si>
+    <t>192.168.2.10</t>
+  </si>
+  <si>
+    <t>192.168.2.13</t>
+  </si>
+  <si>
+    <t>192.168.2.14</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,6 +1263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,6 +1291,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,15 +1323,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,39 +1665,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1668,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1849,7 +1889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1885,7 +1925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1997,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1993,7 +2033,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>148</v>
       </c>
@@ -2031,17 +2071,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2055,7 +2095,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2093,7 +2133,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>53</v>
       </c>
@@ -2132,7 +2172,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2170,7 +2210,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>61</v>
       </c>
@@ -2204,7 +2244,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>65</v>
       </c>
@@ -2239,7 +2279,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -2273,7 +2313,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>69</v>
       </c>
@@ -2294,13 +2334,13 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="65" t="s">
+      <c r="Q19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="66"/>
-      <c r="S19" s="67"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="68"/>
+      <c r="S19" s="69"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
@@ -2322,13 +2362,13 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="68" t="s">
+      <c r="Q20" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="69"/>
-      <c r="S20" s="70"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="71"/>
+      <c r="S20" s="72"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -2349,13 +2389,13 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="68" t="s">
+      <c r="Q21" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="69"/>
-      <c r="S21" s="70"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -2380,13 +2420,13 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="71" t="s">
+      <c r="Q22" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="72"/>
-      <c r="S22" s="73"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R22" s="74"/>
+      <c r="S22" s="75"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>83</v>
       </c>
@@ -2412,7 +2452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -2434,7 +2474,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>86</v>
       </c>
@@ -2456,7 +2496,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>84</v>
       </c>
@@ -2478,19 +2518,19 @@
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>91</v>
       </c>
@@ -2514,7 +2554,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>94</v>
       </c>
@@ -2538,23 +2578,23 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="23" t="s">
         <v>61</v>
       </c>
       <c r="G30" s="20" t="s">
@@ -2562,23 +2602,23 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="8">
         <v>2</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G31" s="20" t="s">
@@ -2586,23 +2626,23 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="20" t="s">
@@ -2610,23 +2650,23 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="8">
         <v>2</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="20" t="s">
@@ -2634,23 +2674,23 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="8">
         <v>2</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="20" t="s">
@@ -2658,23 +2698,23 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="20" t="s">
@@ -2682,23 +2722,23 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="20" t="s">
@@ -2706,46 +2746,46 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="20" t="s">
@@ -2753,138 +2793,138 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="75" t="s">
+      <c r="E42" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="20" t="s">
@@ -2893,23 +2933,23 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="20" t="s">
@@ -2917,23 +2957,23 @@
       </c>
       <c r="I45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G46" s="20" t="s">
@@ -2941,23 +2981,23 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G47" s="20" t="s">
@@ -2965,23 +3005,23 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="75" t="s">
+      <c r="E48" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F48" s="75" t="s">
+      <c r="F48" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G48" s="20" t="s">
@@ -2989,23 +3029,23 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="23" t="s">
         <v>88</v>
       </c>
       <c r="G49" s="20" t="s">
@@ -3014,8 +3054,8 @@
       <c r="H49" s="37"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76" t="s">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="56" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="42" t="s">
@@ -3039,20 +3079,20 @@
       <c r="H50" s="33"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>122</v>
       </c>
@@ -3073,7 +3113,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>127</v>
       </c>
@@ -3093,7 +3133,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
@@ -3113,7 +3153,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>133</v>
       </c>
@@ -3133,7 +3173,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>136</v>
       </c>
@@ -3153,7 +3193,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>139</v>
       </c>
@@ -3173,7 +3213,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>142</v>
       </c>
@@ -3191,7 +3231,7 @@
       </c>
       <c r="F58" s="55"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>145</v>
       </c>
@@ -3209,7 +3249,7 @@
       </c>
       <c r="F59" s="55"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>187</v>
       </c>
@@ -3227,7 +3267,7 @@
       </c>
       <c r="F60" s="55"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>188</v>
       </c>
@@ -3245,7 +3285,7 @@
       </c>
       <c r="F61" s="55"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="50"/>
       <c r="B62" s="51"/>
       <c r="C62" s="52"/>
@@ -3253,11 +3293,73 @@
       <c r="E62" s="53"/>
       <c r="F62" s="50"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition ref="F3:F11"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A63:E63"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>

--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v3.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91446D9-A93A-42DE-AAA9-7505A083397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9980BF-E474-451E-9B5A-9ABCFEB88DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="224">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -663,6 +663,48 @@
   </si>
   <si>
     <t>192.168.2.14</t>
+  </si>
+  <si>
+    <t>ENLACE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>10.0.48-62.x</t>
+  </si>
+  <si>
+    <t>10.1.0-8.x</t>
+  </si>
+  <si>
+    <t>10.0.0-16.x</t>
+  </si>
+  <si>
+    <t>10.2.0-12.x</t>
+  </si>
+  <si>
+    <t>10.3.0-14.x</t>
+  </si>
+  <si>
+    <t>10.4.0-14.x</t>
+  </si>
+  <si>
+    <t>172.16.0-129.x</t>
+  </si>
+  <si>
+    <t>10.0.128-138.x</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>CONEXIÓN DE SITES</t>
   </si>
 </sst>
 </file>
@@ -705,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,8 +784,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1118,11 +1166,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1253,10 +1316,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1323,10 +1382,78 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1665,20 +1792,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
@@ -1688,16 +1815,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2072,16 +2199,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2334,11 +2461,11 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="67" t="s">
+      <c r="Q19" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="68"/>
-      <c r="S19" s="69"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="65"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
@@ -2362,11 +2489,11 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="71"/>
-      <c r="S20" s="72"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="68"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
@@ -2389,11 +2516,11 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="70" t="s">
+      <c r="Q21" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
@@ -2420,11 +2547,11 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="73" t="s">
+      <c r="Q22" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="74"/>
-      <c r="S22" s="75"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="71"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
@@ -2519,16 +2646,16 @@
       <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
@@ -3055,7 +3182,7 @@
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="52" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="42" t="s">
@@ -3080,14 +3207,14 @@
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="65"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
@@ -3129,7 +3256,7 @@
       <c r="E53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
@@ -3140,16 +3267,16 @@
       <c r="B54" s="8">
         <v>501</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="82">
         <v>512</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="82" t="s">
         <v>131</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="55"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
@@ -3160,16 +3287,16 @@
       <c r="B55" s="8">
         <v>504</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="82">
         <v>512</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="82" t="s">
         <v>134</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="55"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
@@ -3180,16 +3307,16 @@
       <c r="B56" s="8">
         <v>502</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="82">
         <v>512</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="82" t="s">
         <v>137</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
@@ -3200,16 +3327,16 @@
       <c r="B57" s="8">
         <v>505</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="82">
         <v>512</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="82" t="s">
         <v>140</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F57" s="55"/>
+      <c r="F57" s="51"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
@@ -3220,16 +3347,16 @@
       <c r="B58" s="8">
         <v>503</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="82">
         <v>512</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="82" t="s">
         <v>143</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="55"/>
+      <c r="F58" s="51"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -3238,16 +3365,16 @@
       <c r="B59" s="8">
         <v>506</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="82">
         <v>512</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="82" t="s">
         <v>146</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="55"/>
+      <c r="F59" s="51"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -3256,16 +3383,16 @@
       <c r="B60" s="8">
         <v>507</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="82">
         <v>512</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="82" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F60" s="55"/>
+      <c r="F60" s="51"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
@@ -3274,100 +3401,170 @@
       <c r="B61" s="8">
         <v>508</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="82">
         <v>512</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="82" t="s">
         <v>190</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="55"/>
+      <c r="F61" s="51"/>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="50"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="76" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="97"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+      <c r="B64" s="81"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" s="93"/>
+      <c r="F64" s="94"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" s="78" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D65" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B66" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" s="84" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D66" s="51">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" s="89">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" s="41" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D67" s="51">
+        <v>2</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="C68" s="87" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D68" s="51">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" s="78" t="s">
         <v>209</v>
+      </c>
+      <c r="D69" s="85">
+        <v>4</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition ref="F3:F11"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="A63:E63"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A51:F51"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
